--- a/USE/ПолноценноеРешениеВариантов/ИюньскийВариант4КЕГЭ2025/22_22614.xlsx
+++ b/USE/ПолноценноеРешениеВариантов/ИюньскийВариант4КЕГЭ2025/22_22614.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Репетиторство\Всё с Лёней\Варианты\Варианты №12-15\Файлы\Задание 22\2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA6EC7-02B2-47E5-9DC9-0E72446B5FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2310" windowWidth="28245" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,42 +22,62 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>ID процесса B</t>
+    <t xml:space="preserve">ID процесса B</t>
   </si>
   <si>
-    <t>Время выполнения процесса B (мс)</t>
+    <t xml:space="preserve">Время выполнения процесса B (мс)</t>
   </si>
   <si>
-    <t>ID процессов A</t>
+    <t xml:space="preserve">ID процессов A</t>
   </si>
   <si>
-    <t>1;2</t>
+    <t xml:space="preserve">1;2</t>
   </si>
   <si>
-    <t>4;6</t>
+    <t xml:space="preserve">3;4</t>
   </si>
   <si>
-    <t>3;4</t>
+    <t xml:space="preserve">4;6</t>
   </si>
   <si>
-    <t>8;9</t>
+    <t xml:space="preserve">8;9</t>
   </si>
   <si>
-    <t>7;10;11</t>
+    <t xml:space="preserve">7;10;11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +89,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -82,187 +97,144 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -270,33 +242,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -309,13 +272,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -325,15 +282,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -341,7 +296,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -349,41 +303,37 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:FM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -393,55 +343,604 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="D1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM1" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -454,15 +953,30 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="R4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
@@ -472,16 +986,55 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -490,15 +1043,60 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="AA6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
@@ -508,16 +1106,46 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="AP7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -526,15 +1154,48 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="AZ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
@@ -545,14 +1206,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
@@ -563,11 +1224,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -581,11 +1242,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -599,11 +1260,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -617,7 +1278,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -629,7 +1290,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -641,7 +1302,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -653,7 +1314,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -665,7 +1326,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -677,7 +1338,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -689,7 +1350,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -701,7 +1362,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -713,7 +1374,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -725,7 +1386,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -737,7 +1398,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -749,7 +1410,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -761,7 +1422,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -773,7 +1434,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -785,7 +1446,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -797,7 +1458,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -809,7 +1470,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -822,6 +1483,12 @@
       <c r="J30" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>